--- a/test-files/graph-tests/different-sized-networks/50-genes-max-edges.xlsx
+++ b/test-files/graph-tests/different-sized-networks/50-genes-max-edges.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="28620" windowHeight="12915"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14240"/>
   </bookViews>
   <sheets>
     <sheet name="network" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="51">
   <si>
     <t>rows genes affected/cols genes controlling</t>
   </si>
@@ -173,7 +178,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -187,6 +192,20 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -208,8 +227,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -217,7 +238,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -517,15 +540,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX51"/>
+  <dimension ref="A1:AY51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:AX2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:AY1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:51" ht="13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -596,88 +619,91 @@
         <v>22</v>
       </c>
       <c r="X1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>44</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>45</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>46</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>47</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>48</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>49</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:51">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -829,7 +855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:51">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -981,7 +1007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:51">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1133,7 +1159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:51">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1285,7 +1311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:51">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1437,7 +1463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:51">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1589,7 +1615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:51">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1741,7 +1767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:51">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1893,7 +1919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:51">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2045,7 +2071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:51">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -2197,7 +2223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:51">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2349,7 +2375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:51">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -2501,7 +2527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:51">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2653,7 +2679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:51">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2805,7 +2831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:51">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -2957,7 +2983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:50">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -3109,7 +3135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:50">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -3261,7 +3287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:50">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -3413,7 +3439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:50">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -3565,7 +3591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:50">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -3717,7 +3743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:50">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -3869,7 +3895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:50">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -4021,7 +4047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:50">
       <c r="A24" t="s">
         <v>43</v>
       </c>
@@ -4173,7 +4199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:50">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -4325,7 +4351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:50">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -4477,7 +4503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:50">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -4629,7 +4655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:50">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -4781,7 +4807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:50">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -4933,7 +4959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:50">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -5085,7 +5111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:50">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -5237,7 +5263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:50">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -5389,7 +5415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:50">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -5541,7 +5567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:50">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -5693,7 +5719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:50">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -5845,7 +5871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:50">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -5997,7 +6023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:50">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -6149,7 +6175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:50">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -6301,7 +6327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:50">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -6453,7 +6479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:50">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -6605,7 +6631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:50">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -6757,7 +6783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:50">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -6909,7 +6935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:50">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -7061,7 +7087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:50">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -7213,7 +7239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:50">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -7365,7 +7391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:50">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -7517,7 +7543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:50">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -7669,7 +7695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:50">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -7821,7 +7847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:50">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -7973,7 +7999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:50">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -8125,7 +8151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:50">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -8279,5 +8305,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>